--- a/data/trans_bre/Predimed_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R2-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-0.6301746765998817</v>
+        <v>-0.6301746765998928</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.007937428576172785</v>
+        <v>-0.007937428576172925</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.645751549964099</v>
+        <v>-5.930367701550942</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.06902609776311119</v>
+        <v>-0.07255408223443832</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.28179466524428</v>
+        <v>4.127999810091836</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.05580824733702084</v>
+        <v>0.05357847695402135</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-5.82580737410413</v>
+        <v>-5.825807374104164</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.07087221889663965</v>
+        <v>-0.07087221889664004</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.86413936794771</v>
+        <v>-11.05352384442679</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1298767216490642</v>
+        <v>-0.1308821881846947</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.1236084892709527</v>
+        <v>-0.6807974001688941</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.001691917767003342</v>
+        <v>-0.009291476856931304</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-2.685517619538103</v>
+        <v>-2.685517619538114</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.03432092338211742</v>
+        <v>-0.03432092338211755</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.01909530070021</v>
+        <v>-10.54727944622323</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.1247095530508371</v>
+        <v>-0.1324770391156108</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.437776244262128</v>
+        <v>4.354645795854963</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.05839230380081843</v>
+        <v>0.05779046263007787</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-0.8782931267325877</v>
+        <v>-0.87829312673261</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.0109366493493261</v>
+        <v>-0.01093664934932637</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.739301059662403</v>
+        <v>-4.713265762288909</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05798015655548609</v>
+        <v>-0.05702125673524087</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.725007226919835</v>
+        <v>2.417682651355462</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03496376938339074</v>
+        <v>0.03109373663265956</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-7.013612158636173</v>
+        <v>-7.013612158636184</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.07824130921694659</v>
+        <v>-0.07824130921694671</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.48193880391517</v>
+        <v>-10.80799899219778</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.1144692298571847</v>
+        <v>-0.1183716336714315</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.304530299056458</v>
+        <v>-3.392951866697075</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.03831226639954775</v>
+        <v>-0.03914189736912366</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>-4.913413076074957</v>
+        <v>-4.913413076074979</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.05290163257392687</v>
+        <v>-0.0529016325739271</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-9.787795771305124</v>
+        <v>-9.79177871853603</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1011687674064103</v>
+        <v>-0.1006486273462559</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.577698652839044</v>
+        <v>2.59809252349072</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02887466777298462</v>
+        <v>0.03010534427096222</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-1.022447071269517</v>
+        <v>-1.022447071269494</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>-0.01240211115567717</v>
+        <v>-0.01240211115567691</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.778705233696313</v>
+        <v>-2.870710882174586</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.03311033215245668</v>
+        <v>-0.03434107963208715</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9630954146992921</v>
+        <v>0.8248919484847331</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.01195543098336535</v>
+        <v>0.01008482245091409</v>
       </c>
     </row>
     <row r="25">
